--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2773.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2773.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166755538369111</v>
+        <v>1.412554860115051</v>
       </c>
       <c r="B1">
-        <v>2.428240997859427</v>
+        <v>1.693804860115051</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.270220041275024</v>
       </c>
       <c r="D1">
-        <v>2.370156006316009</v>
+        <v>5.045341491699219</v>
       </c>
       <c r="E1">
-        <v>1.229935358216254</v>
+        <v>2.042982578277588</v>
       </c>
     </row>
   </sheetData>
